--- a/REGULAR/DELA CRUZ SHEILA.xlsx
+++ b/REGULAR/DELA CRUZ SHEILA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\REGULAR\ONT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80E0209-7682-4296-A241-EDC678CA532F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E1BBD4-80C4-42D8-91D5-EB38BD815E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -24,25 +24,17 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
   <si>
     <t>PERIOD</t>
   </si>
@@ -282,6 +274,15 @@
   </si>
   <si>
     <t>12/23-29/2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>VL(3-0-0)</t>
+  </si>
+  <si>
+    <t>3/28,29,30/2023</t>
   </si>
 </sst>
 </file>
@@ -974,7 +975,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
@@ -1303,12 +1304,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K130"/>
+  <dimension ref="A2:K131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A73" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A75" activePane="bottomLeft"/>
       <selection activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="B78" sqref="B78"/>
+      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1472,7 +1473,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>66.5</v>
+        <v>67.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1482,7 +1483,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>74.5</v>
+        <v>78.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -2910,7 +2911,9 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="40"/>
+      <c r="A78" s="48" t="s">
+        <v>70</v>
+      </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
       <c r="D78" s="39"/>
@@ -2926,15 +2929,19 @@
       <c r="K78" s="20"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="40"/>
+      <c r="A79" s="40">
+        <v>44927</v>
+      </c>
       <c r="B79" s="20"/>
-      <c r="C79" s="13"/>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="39"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
@@ -2942,15 +2949,19 @@
       <c r="K79" s="20"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="40"/>
+      <c r="A80" s="40">
+        <v>44958</v>
+      </c>
       <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
@@ -2958,23 +2969,35 @@
       <c r="K80" s="20"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="40"/>
-      <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="39"/>
+      <c r="A81" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D81" s="39">
+        <v>3</v>
+      </c>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="20"/>
+      <c r="K81" s="20" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="40"/>
+      <c r="A82" s="40">
+        <v>45017</v>
+      </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
       <c r="D82" s="39"/>
@@ -2990,7 +3013,9 @@
       <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="40"/>
+      <c r="A83" s="40">
+        <v>45047</v>
+      </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
       <c r="D83" s="39"/>
@@ -3006,7 +3031,9 @@
       <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="40"/>
+      <c r="A84" s="40">
+        <v>45078</v>
+      </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
@@ -3022,7 +3049,9 @@
       <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="40"/>
+      <c r="A85" s="40">
+        <v>45108</v>
+      </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
@@ -3038,7 +3067,9 @@
       <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="40"/>
+      <c r="A86" s="40">
+        <v>45139</v>
+      </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
@@ -3054,7 +3085,9 @@
       <c r="K86" s="20"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="40"/>
+      <c r="A87" s="40">
+        <v>45170</v>
+      </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
@@ -3070,7 +3103,9 @@
       <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="40"/>
+      <c r="A88" s="40">
+        <v>45200</v>
+      </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
@@ -3086,7 +3121,9 @@
       <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="40"/>
+      <c r="A89" s="40">
+        <v>45231</v>
+      </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
@@ -3102,7 +3139,9 @@
       <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="40"/>
+      <c r="A90" s="40">
+        <v>45261</v>
+      </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
@@ -3118,7 +3157,9 @@
       <c r="K90" s="20"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="40"/>
+      <c r="A91" s="40">
+        <v>45292</v>
+      </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
@@ -3134,7 +3175,9 @@
       <c r="K91" s="20"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="40"/>
+      <c r="A92" s="40">
+        <v>45323</v>
+      </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
@@ -3150,7 +3193,9 @@
       <c r="K92" s="20"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="40"/>
+      <c r="A93" s="40">
+        <v>45352</v>
+      </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
       <c r="D93" s="39"/>
@@ -3166,7 +3211,9 @@
       <c r="K93" s="20"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="40"/>
+      <c r="A94" s="40">
+        <v>45383</v>
+      </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
@@ -3182,7 +3229,9 @@
       <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="40"/>
+      <c r="A95" s="40">
+        <v>45413</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
@@ -3198,7 +3247,9 @@
       <c r="K95" s="20"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="40"/>
+      <c r="A96" s="40">
+        <v>45444</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
@@ -3214,7 +3265,9 @@
       <c r="K96" s="20"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="40"/>
+      <c r="A97" s="40">
+        <v>45474</v>
+      </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
@@ -3230,7 +3283,9 @@
       <c r="K97" s="20"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" s="40"/>
+      <c r="A98" s="40">
+        <v>45505</v>
+      </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
@@ -3246,7 +3301,9 @@
       <c r="K98" s="20"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="40"/>
+      <c r="A99" s="40">
+        <v>45536</v>
+      </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
       <c r="D99" s="39"/>
@@ -3262,7 +3319,9 @@
       <c r="K99" s="20"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="40"/>
+      <c r="A100" s="40">
+        <v>45566</v>
+      </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
@@ -3278,7 +3337,9 @@
       <c r="K100" s="20"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="40"/>
+      <c r="A101" s="40">
+        <v>45597</v>
+      </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
@@ -3294,7 +3355,9 @@
       <c r="K101" s="20"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="40"/>
+      <c r="A102" s="40">
+        <v>45627</v>
+      </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
@@ -3310,7 +3373,9 @@
       <c r="K102" s="20"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="40"/>
+      <c r="A103" s="40">
+        <v>45658</v>
+      </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
@@ -3326,7 +3391,9 @@
       <c r="K103" s="20"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" s="40"/>
+      <c r="A104" s="40">
+        <v>45689</v>
+      </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
       <c r="D104" s="39"/>
@@ -3342,7 +3409,9 @@
       <c r="K104" s="20"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" s="40"/>
+      <c r="A105" s="40">
+        <v>45717</v>
+      </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
       <c r="D105" s="39"/>
@@ -3358,7 +3427,9 @@
       <c r="K105" s="20"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" s="40"/>
+      <c r="A106" s="40">
+        <v>45748</v>
+      </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
       <c r="D106" s="39"/>
@@ -3374,7 +3445,9 @@
       <c r="K106" s="20"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" s="40"/>
+      <c r="A107" s="40">
+        <v>45778</v>
+      </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
       <c r="D107" s="39"/>
@@ -3742,20 +3815,36 @@
       <c r="K129" s="20"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A130" s="41"/>
-      <c r="B130" s="15"/>
-      <c r="C130" s="42"/>
-      <c r="D130" s="43"/>
+      <c r="A130" s="40"/>
+      <c r="B130" s="20"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="39"/>
       <c r="E130" s="9"/>
-      <c r="F130" s="15"/>
-      <c r="G130" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H130" s="43"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H130" s="39"/>
       <c r="I130" s="9"/>
-      <c r="J130" s="12"/>
-      <c r="K130" s="15"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="20"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="41"/>
+      <c r="B131" s="15"/>
+      <c r="C131" s="42"/>
+      <c r="D131" s="43"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="43"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">
